--- a/output/formr_vignetas_ESP.xlsx
+++ b/output/formr_vignetas_ESP.xlsx
@@ -2354,7 +2354,7 @@
     <t>Imagina que la persona G se muda a tu barrio. ¿Qué probabilidad hay de que entres en conflicto con esa persona?</t>
   </si>
   <si>
-    <t>La Persona H es mujer y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona H terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona H es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona H es mujer y tiene 45 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona H terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona H es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>Imagina que conoces a la persona H a través de tu círculo de conocidos. ¿Qué probabilidad hay de que te lleves bien con la persona H?</t>
@@ -2366,7 +2366,7 @@
     <t>Imagina que la persona H se muda a tu barrio. ¿Qué probabilidad hay de que entres en conflicto con esa persona?</t>
   </si>
   <si>
-    <t>La Persona I es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona I fue a la universidad y obtuvo un título universitario, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona I es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona I es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona I fue a la universidad y obtuvo un título universitario, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona I es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>Imagina que conoces a la persona I a través de tu círculo de conocidos. ¿Qué probabilidad hay de que te lleves bien con la persona I?</t>
@@ -2390,7 +2390,7 @@
     <t>Imagina que la persona J se muda a tu barrio. ¿Qué probabilidad hay de que entres en conflicto con esa persona?</t>
   </si>
   <si>
-    <t>La Persona A es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona A terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona A es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona A terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona B es hombre y tiene 45 años.  Nació en Venezuela, vino a Chile y es judío. La Persona B terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
@@ -2402,7 +2402,7 @@
     <t>La Persona D es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es evangélico. La Persona D terminó la Educación Media, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona D es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona E es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona E terminó la Educación Básica, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona E es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona E terminó la Educación Básica, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona F es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es judío. La Persona F fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona F es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2435,13 +2435,13 @@
     <t>La Persona E es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es judía. La Persona E fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona E es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona F es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona F terminó la Educación Básica, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona F es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona F es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona F terminó la Educación Básica, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona F es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona G es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es evangélico. La Persona G terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona H es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona H terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona H es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona H terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona I es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es católico. La Persona I terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona I es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2453,7 +2453,7 @@
     <t>La Persona A es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona A terminó la Educación Básica, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona B es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona B terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona B es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona B es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona B terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona B es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona C es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es evangélico. La Persona C terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona C es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2471,13 +2471,13 @@
     <t>La Persona G es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es católica. La Persona G terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona H es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona H terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona H es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona H terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona I es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es católica. La Persona I terminó la Educación Media, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona I es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
-    <t>La Persona J es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona J fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona J es importante ser tolerante y ayudar a la gente que te rodea.</t>
+    <t>La Persona J es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona J fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona J es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
     <t>La Persona A es hombre y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es evangélico. La Persona A terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
@@ -2486,13 +2486,13 @@
     <t>La Persona B es mujer y tiene 25 años.  Nació en Venezuela, vino a Chile y es evangélica. La Persona B terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
-    <t>La Persona C es mujer y tiene 65 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona C terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona C es mujer y tiene 65 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona C terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona D es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es judía. La Persona D fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona D es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
-    <t>La Persona E es hombre y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona E fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona E es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona E es hombre y tiene 65 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona E fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona E es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona F es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es católica. La Persona F terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona F es importante ser tolerante y ayudar a la gente que te rodea.</t>
@@ -2504,7 +2504,7 @@
     <t>La Persona H es mujer y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es evangélica. La Persona H terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona I es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona I terminó la Educación Básica, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona I es importante ser tolerante y ayudar a la gente que te rodea.</t>
+    <t>La Persona I es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona I terminó la Educación Básica, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona I es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
     <t>La Persona J es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es judío. La Persona J fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona J es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2513,7 +2513,7 @@
     <t>La Persona A es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es judío. La Persona A terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona B es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona B terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona B es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona B terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona C es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona C terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona C es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2528,7 +2528,7 @@
     <t>La Persona F es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es evangélica. La Persona F fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona F es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona G es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona G terminó la Educación Media, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona G es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona G es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona G terminó la Educación Media, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona G es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona H es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es católica. La Persona H fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2549,10 +2549,10 @@
     <t>La Persona C es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona C terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
-    <t>La Persona D es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona D terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona D es importante ser tolerante y ayudar a la gente que te rodea.</t>
-  </si>
-  <si>
-    <t>La Persona E es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona E fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona E es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona D es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona D terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona D es importante ser tolerante y ayudar a la gente que te rodea.</t>
+  </si>
+  <si>
+    <t>La Persona E es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona E fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona E es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona F es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es evangélica. La Persona F terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona F es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2564,25 +2564,25 @@
     <t>La Persona H es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es católico. La Persona H terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona I es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona I fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona I es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona I es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona I fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona I es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona J es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es católico. La Persona J terminó la Educación Media, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona J es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
-    <t>La Persona A es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona A fue a la universidad y obtuvo un título universitario, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona A es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona A fue a la universidad y obtuvo un título universitario, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona B es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es judío. La Persona B terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona C es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona C fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona C es importante ser tolerante y ayudar a la gente que te rodea.</t>
+    <t>La Persona C es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona C fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona C es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
     <t>La Persona D es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es católico. La Persona D terminó la Educación Básica, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona D es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona E es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona E terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona E es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona E terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona F es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es evangélica. La Persona F terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona F es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2615,10 +2615,10 @@
     <t>La Persona E es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es judío. La Persona E terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona E es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona F es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona F terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona F es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
-  </si>
-  <si>
-    <t>La Persona G es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona G terminó la Educación Media, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona G es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona F es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona F terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona F es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
+  </si>
+  <si>
+    <t>La Persona G es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona G terminó la Educación Media, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona G es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona H es hombre y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es judío. La Persona H terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona H es importante ser tolerante y ayudar a la gente que te rodea.</t>
@@ -2633,7 +2633,7 @@
     <t>La Persona A es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es judío. La Persona A terminó la Educación Media, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona B es hombre y tiene 65 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona B terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona B es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona B es hombre y tiene 65 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona B terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona B es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona C es mujer y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es evangélica. La Persona C terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona C es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2651,7 +2651,7 @@
     <t>La Persona G es mujer y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona G terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona H es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona H fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona H es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona H es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona H fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona H es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona I es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es católico. La Persona I fue a la universidad y obtuvo un título universitario, está empleado tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona I es importante ser tolerante y ayudar a la gente que te rodea.</t>
@@ -2660,7 +2660,7 @@
     <t>La Persona A es hombre y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es católico. La Persona A fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona A es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona B es hombre y tiene 45 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona B terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona B es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
+    <t>La Persona B es hombre y tiene 45 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona B terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona B es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
     <t>La Persona C es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es católica. La Persona C terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante alcanzar el éxito personal y estar al mando.</t>
@@ -2675,10 +2675,10 @@
     <t>La Persona F es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es judío. La Persona F terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona F es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona G es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona G fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
-  </si>
-  <si>
-    <t>La Persona H es mujer y tiene 65 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona H terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona G es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona G fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
+  </si>
+  <si>
+    <t>La Persona H es mujer y tiene 65 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona H terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona H es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona I es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona I fue a la universidad y obtuvo un título universitario, es dueña de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona I es importante alcanzar el éxito personal y estar al mando.</t>
@@ -2690,10 +2690,10 @@
     <t>La Persona B es mujer y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es católica. La Persona B terminó la Educación Media, está desempleada y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
-    <t>La Persona C es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona C terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona C es importante ser tolerante y ayudar a la gente que te rodea.</t>
-  </si>
-  <si>
-    <t>La Persona D es mujer y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona D fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona D es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona C es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona C terminó la Educación Media, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente desinteresado. Para la persona C es importante ser tolerante y ayudar a la gente que te rodea.</t>
+  </si>
+  <si>
+    <t>La Persona D es mujer y tiene 65 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona D fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona D es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona E es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es judío. La Persona E terminó la Educación Básica, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de derecha. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
@@ -2711,10 +2711,10 @@
     <t>La Persona I es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es evangélica. La Persona I fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona I es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona A es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es no religiosa. La Persona A terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona A es importante ser tolerante y ayudar a la gente que te rodea.</t>
-  </si>
-  <si>
-    <t>La Persona B es hombre y tiene 25 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona B terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona B es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona A es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y no es religiosa. La Persona A terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona A es importante ser tolerante y ayudar a la gente que te rodea.</t>
+  </si>
+  <si>
+    <t>La Persona B es hombre y tiene 25 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona B terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona B es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona C es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es evangélico. La Persona C fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona C es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2741,19 +2741,19 @@
     <t>La Persona A es hombre y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es evangélico. La Persona A terminó la Educación Media, es dueño de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de derecha. Para la persona A es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
-    <t>La Persona B es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es no religioso. La Persona B fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona B es importante ser tolerante y ayudar a la gente que te rodea.</t>
+    <t>La Persona B es hombre y tiene 25 años.  Nació en Chile, tiene padres Peruanos y no es religioso. La Persona B fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente desinteresado. Para la persona B es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
     <t>La Persona C es hombre y tiene 45 años.  Nació en Chile, tiene padres Peruanos y es evangélico. La Persona C terminó la Educación Básica, está empleado tiempo completo y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona D es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es no religiosa. La Persona D terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona D es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona D es mujer y tiene 45 años.  Nació en Chile, tiene padres Chilenos y no es religiosa. La Persona D terminó la Educación Básica, está desempleada y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona D es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona E es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es católica. La Persona E fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona E es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
-    <t>La Persona F es hombre y tiene 65 años.  Nació en Venezuela, vino a Chile y es no religioso. La Persona F terminó la Educación Básica, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona F es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
+    <t>La Persona F es hombre y tiene 65 años.  Nació en Venezuela, vino a Chile y no es religioso. La Persona F terminó la Educación Básica, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona F es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
   </si>
   <si>
     <t>La Persona G es mujer y tiene 65 años.  Nació en Chile, tiene padres Chilenos y es judía. La Persona G fue a la universidad y obtuvo un título universitario, está empleada tiempo completo y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona G es importante sentirse segura, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2768,7 +2768,7 @@
     <t>La Persona A es hombre y tiene 25 años.  Nació en Venezuela, vino a Chile y es evangélico. La Persona A fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de izquierda. Para la persona A es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
   </si>
   <si>
-    <t>La Persona B es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y es no religioso. La Persona B fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
+    <t>La Persona B es hombre y tiene 45 años.  Nació en Chile, tiene padres Chilenos y no es religioso. La Persona B fue a la universidad y obtuvo un título universitario, es dueño de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de izquierda. Para la persona B es importante alcanzar el éxito personal y estar al mando.</t>
   </si>
   <si>
     <t>La Persona C es hombre y tiene 65 años.  Nació en Chile, tiene padres Peruanos y es judío. La Persona C fue a la universidad y obtuvo un título universitario, está desempleado y tiene unos ingresos mensuales de $910.000 a su disposición.   Se considera políticamente de centro. Para la persona C es importante sentirse seguro, adaptarse a los demás y respetar las tradiciones.</t>
@@ -2786,7 +2786,7 @@
     <t>La Persona G es mujer y tiene 45 años.  Nació en Venezuela, vino a Chile y es evangélica. La Persona G terminó la Educación Media, es dueña de casa y tiene unos ingresos mensuales de $500.000 a su disposición.   Se considera políticamente de centro. Para la persona G es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
-    <t>La Persona H es mujer y tiene 25 años.  Nació en Venezuela, vino a Chile y es no religiosa. La Persona H terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona H es importante ser tolerante y ayudar a la gente que te rodea.</t>
+    <t>La Persona H es mujer y tiene 25 años.  Nació en Venezuela, vino a Chile y no es religiosa. La Persona H terminó la Educación Básica, es dueña de casa y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente desinteresado. Para la persona H es importante ser tolerante y ayudar a la gente que te rodea.</t>
   </si>
   <si>
     <t>La Persona I es mujer y tiene 25 años.  Nació en Chile, tiene padres Peruanos y es judía. La Persona I terminó la Educación Media, está empleada tiempo completo y tiene unos ingresos mensuales de $4.100.000 a su disposición.   Se considera políticamente de derecha. Para la persona I es importante tomar sus propias decisiones y llevar una vida divertida y llena de aventuras</t>
